--- a/4 курс/Информационный менеджмент/Lab4-Parakhin_OIM.xlsx
+++ b/4 курс/Информационный менеджмент/Lab4-Parakhin_OIM.xlsx
@@ -442,7 +442,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +455,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -696,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -719,76 +731,85 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -1086,29 +1107,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="2">
         <v>1</v>
       </c>
@@ -1132,17 +1153,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -1170,15 +1191,15 @@
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="33">
         <v>0.5</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="8">
         <f>C4*I4</f>
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1203,10 +1224,10 @@
       <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="33">
         <v>0.3</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="8">
         <f t="shared" ref="J5:J9" si="0">C5*I5</f>
         <v>0.06</v>
       </c>
@@ -1236,15 +1257,15 @@
       <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="8">
         <v>0.3</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="8">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="49.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1269,10 +1290,10 @@
       <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="8">
         <v>0.5</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="8">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -1302,15 +1323,15 @@
       <c r="H8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="8">
         <v>0.3</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="8">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="112.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -1335,20 +1356,20 @@
       <c r="H9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="33">
         <v>0.6</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="8">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="6">
         <v>0</v>
       </c>
@@ -1365,7 +1386,7 @@
         <v>0.59</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="30">
+      <c r="J10" s="31">
         <f>SUM(J4:J9)</f>
         <v>0.43</v>
       </c>
@@ -1374,15 +1395,15 @@
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="31"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
@@ -1409,15 +1430,15 @@
       <c r="H12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="8">
         <v>0.5</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="8">
         <f>C12*I12</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -1442,10 +1463,10 @@
       <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="8">
         <v>0.7</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="8">
         <f t="shared" ref="J13:J15" si="1">C13*I13</f>
         <v>0.21</v>
       </c>
@@ -1475,10 +1496,10 @@
       <c r="H14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="8">
         <v>0.5</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="8">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
@@ -1508,20 +1529,20 @@
       <c r="H15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="8">
         <v>0.6</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="8">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="6">
         <v>0.1</v>
       </c>
@@ -1538,7 +1559,7 @@
         <v>0.64</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="30">
+      <c r="J16" s="31">
         <f>SUM(J12:J15)</f>
         <v>0.57999999999999996</v>
       </c>
@@ -1547,17 +1568,17 @@
       <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:10" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
@@ -1582,15 +1603,15 @@
       <c r="H18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="8">
         <v>0.6</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="8">
         <f>C18*I18</f>
         <v>0.27</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
@@ -1615,20 +1636,20 @@
       <c r="H19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="33">
         <v>0.7</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="8">
         <f>C19*I19</f>
         <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="6">
         <v>0.22500000000000001</v>
       </c>
@@ -1645,54 +1666,60 @@
         <v>0.66</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="30">
+      <c r="J20" s="31">
         <f>SUM(J18:J19)</f>
         <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="26" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="8" t="s">
+      <c r="I21" s="10"/>
+      <c r="J21" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="30">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="32">
         <f>SQRT(J10*J10+J16*J16+J20*J20)</f>
         <v>0.97484614170647466</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A3:I3"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="A16:C16"/>
@@ -1704,12 +1731,6 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
